--- a/League Progress.xlsx
+++ b/League Progress.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="7275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="7275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="B1" sheetId="2" r:id="rId2"/>
+    <sheet name="D1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Div</t>
   </si>
@@ -160,6 +161,51 @@
   </si>
   <si>
     <t>Clubb Brugge</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>FC Koln</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Union berlin</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldford</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Werder bremen</t>
   </si>
 </sst>
 </file>
@@ -207,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -219,6 +265,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +609,7 @@
         <v>306</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D24" si="0">C3-B3</f>
         <v>82</v>
       </c>
       <c r="E3" s="4">
@@ -976,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,4 +1110,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/League Progress.xlsx
+++ b/League Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="7275" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,24 +983,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C23" s="1">
         <v>306</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>0.75816993464052285</v>
+        <v>0.76470588235294112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>SUM(B2:B23)</f>
-        <v>5862</v>
+        <v>5864</v>
       </c>
       <c r="C24">
         <f>SUM(C2:C23)</f>
@@ -1008,11 +1008,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>0.76228868660598181</v>
+        <v>0.76254876462938881</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
